--- a/data/pca/factorExposure/factorExposure_2018-08-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03947419709393103</v>
+        <v>-0.03002892594855819</v>
       </c>
       <c r="C2">
-        <v>-0.03931328300234539</v>
+        <v>-0.01526202570783393</v>
       </c>
       <c r="D2">
-        <v>-0.03713243360650004</v>
+        <v>-0.01548702358377928</v>
       </c>
       <c r="E2">
-        <v>0.05176329024115409</v>
+        <v>0.0146407681218695</v>
       </c>
       <c r="F2">
-        <v>0.1460226236343808</v>
+        <v>-0.02076496941217878</v>
       </c>
       <c r="G2">
-        <v>0.04745102386463373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08616476759375184</v>
+      </c>
+      <c r="H2">
+        <v>0.01935308849034429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1284168248957409</v>
+        <v>-0.08309512672634138</v>
       </c>
       <c r="C3">
-        <v>0.006410203180538727</v>
+        <v>0.01340228352544888</v>
       </c>
       <c r="D3">
-        <v>-0.02662655453911915</v>
+        <v>-0.01898128224884399</v>
       </c>
       <c r="E3">
-        <v>0.08667025484061314</v>
+        <v>0.006057802032346161</v>
       </c>
       <c r="F3">
-        <v>0.3923855903313911</v>
+        <v>0.02438943337433848</v>
       </c>
       <c r="G3">
-        <v>0.1601628233311111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2704890583365208</v>
+      </c>
+      <c r="H3">
+        <v>0.03620929456987623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05484535978905787</v>
+        <v>-0.04967967787900867</v>
       </c>
       <c r="C4">
-        <v>-0.03360117286338641</v>
+        <v>-0.003719420294885543</v>
       </c>
       <c r="D4">
-        <v>0.001163241051724636</v>
+        <v>-0.03397179806418992</v>
       </c>
       <c r="E4">
-        <v>0.06658977580016082</v>
+        <v>-0.02054303204853569</v>
       </c>
       <c r="F4">
-        <v>0.0736970598971976</v>
+        <v>-0.05416413037952999</v>
       </c>
       <c r="G4">
-        <v>0.04482497960697516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.05551292053913256</v>
+      </c>
+      <c r="H4">
+        <v>0.02718325343299342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0128431965157414</v>
+        <v>-0.02635445332003316</v>
       </c>
       <c r="C6">
-        <v>0.003787538130543346</v>
+        <v>-0.004620281899174723</v>
       </c>
       <c r="D6">
-        <v>-0.01349138841172764</v>
+        <v>-0.04739495953176617</v>
       </c>
       <c r="E6">
-        <v>0.0214797336297757</v>
+        <v>-0.006721076203714512</v>
       </c>
       <c r="F6">
-        <v>0.01299363929612878</v>
+        <v>-0.03874346431275144</v>
       </c>
       <c r="G6">
-        <v>-0.003975892667885858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01726650565803661</v>
+      </c>
+      <c r="H6">
+        <v>0.05072330078663916</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02790815393606209</v>
+        <v>-0.02161591645674627</v>
       </c>
       <c r="C7">
-        <v>-0.01134372685239801</v>
+        <v>-0.002804771807870215</v>
       </c>
       <c r="D7">
-        <v>-0.03287254409159532</v>
+        <v>-0.0185219419270553</v>
       </c>
       <c r="E7">
-        <v>0.03341400185552715</v>
+        <v>-0.0350590299748457</v>
       </c>
       <c r="F7">
-        <v>0.06145166986426084</v>
+        <v>-0.0170429349992481</v>
       </c>
       <c r="G7">
-        <v>0.05697724724726276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0396477864350828</v>
+      </c>
+      <c r="H7">
+        <v>0.01532235030177858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01892032560333146</v>
+        <v>-0.007378258910661903</v>
       </c>
       <c r="C8">
-        <v>-0.01136366161405374</v>
+        <v>0.002666212785947552</v>
       </c>
       <c r="D8">
-        <v>0.003679768856658036</v>
+        <v>-0.008640372451244115</v>
       </c>
       <c r="E8">
-        <v>0.06990426004346439</v>
+        <v>-0.01130425706600536</v>
       </c>
       <c r="F8">
-        <v>0.08652369754116118</v>
+        <v>-0.02437352645208007</v>
       </c>
       <c r="G8">
-        <v>0.06571298729459341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05803775732447043</v>
+      </c>
+      <c r="H8">
+        <v>0.0071509641706929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04565818726167449</v>
+        <v>-0.0414467370795563</v>
       </c>
       <c r="C9">
-        <v>-0.02589044230222165</v>
+        <v>0.0007468935339527995</v>
       </c>
       <c r="D9">
-        <v>0.01227095079552576</v>
+        <v>-0.02793295670640597</v>
       </c>
       <c r="E9">
-        <v>0.07051653006855266</v>
+        <v>-0.01848623600127216</v>
       </c>
       <c r="F9">
-        <v>0.06687361144300671</v>
+        <v>-0.03178934222796863</v>
       </c>
       <c r="G9">
-        <v>0.04838122893117584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06383275568631681</v>
+      </c>
+      <c r="H9">
+        <v>0.02513068300700784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04764581026367203</v>
+        <v>-0.09963746735187576</v>
       </c>
       <c r="C10">
-        <v>-0.04640376437584542</v>
+        <v>0.03248100903960179</v>
       </c>
       <c r="D10">
-        <v>0.02594666821946701</v>
+        <v>0.1460990784753361</v>
       </c>
       <c r="E10">
-        <v>-0.1097020797965512</v>
+        <v>0.01768395998248272</v>
       </c>
       <c r="F10">
-        <v>0.07527246109120971</v>
+        <v>0.06538663727001644</v>
       </c>
       <c r="G10">
-        <v>-0.04095162038728499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02154313002625032</v>
+      </c>
+      <c r="H10">
+        <v>0.003804898327848938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03450751834728404</v>
+        <v>-0.02258468388740976</v>
       </c>
       <c r="C11">
-        <v>-0.008897802694073505</v>
+        <v>0.008059164880474767</v>
       </c>
       <c r="D11">
-        <v>-0.01857437879072524</v>
+        <v>-0.03395694949090416</v>
       </c>
       <c r="E11">
-        <v>0.0363035648707915</v>
+        <v>0.003365109116765189</v>
       </c>
       <c r="F11">
-        <v>0.03418579941883633</v>
+        <v>-0.01902409077274256</v>
       </c>
       <c r="G11">
-        <v>0.02110889044406173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03741145269947562</v>
+      </c>
+      <c r="H11">
+        <v>0.02782521735015952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04207152858293998</v>
+        <v>-0.0314714133330178</v>
       </c>
       <c r="C12">
-        <v>-0.009602913895835419</v>
+        <v>0.006503347593635521</v>
       </c>
       <c r="D12">
-        <v>-0.005554123029585731</v>
+        <v>-0.03402456818106111</v>
       </c>
       <c r="E12">
-        <v>0.04586248207368551</v>
+        <v>-0.007997038910771198</v>
       </c>
       <c r="F12">
-        <v>0.01569829598172821</v>
+        <v>-0.02326787913703888</v>
       </c>
       <c r="G12">
-        <v>0.01708020263810639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.0150690107698323</v>
+      </c>
+      <c r="H12">
+        <v>0.01435573557598806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02209573225533727</v>
+        <v>-0.02750113723849421</v>
       </c>
       <c r="C13">
-        <v>-0.0202189449292299</v>
+        <v>-0.01314780331161751</v>
       </c>
       <c r="D13">
-        <v>-0.0323652562089475</v>
+        <v>-0.002291899735553128</v>
       </c>
       <c r="E13">
-        <v>0.01503376820415585</v>
+        <v>0.01789176116689052</v>
       </c>
       <c r="F13">
-        <v>0.09012242395519861</v>
+        <v>-0.01555878668185278</v>
       </c>
       <c r="G13">
-        <v>0.0335643555482955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.07131068499698612</v>
+      </c>
+      <c r="H13">
+        <v>0.02569331417715471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01367351944196079</v>
+        <v>-0.01775379225065661</v>
       </c>
       <c r="C14">
-        <v>-0.01238188889326386</v>
+        <v>-0.0001456075727338697</v>
       </c>
       <c r="D14">
-        <v>-0.00504466689917716</v>
+        <v>-0.002302533728758196</v>
       </c>
       <c r="E14">
-        <v>0.0366894528398445</v>
+        <v>-0.008147821887285042</v>
       </c>
       <c r="F14">
-        <v>0.06160598912156195</v>
+        <v>-0.01833930814835646</v>
       </c>
       <c r="G14">
-        <v>0.06681732294822416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04617882524191194</v>
+      </c>
+      <c r="H14">
+        <v>-0.01804690609143334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02569143323051389</v>
+        <v>-0.02396486108382645</v>
       </c>
       <c r="C16">
-        <v>-0.01002866053365656</v>
+        <v>0.008628267542214905</v>
       </c>
       <c r="D16">
-        <v>-0.01600046126311213</v>
+        <v>-0.02955111239165967</v>
       </c>
       <c r="E16">
-        <v>0.03431609361038321</v>
+        <v>-0.001361209546476885</v>
       </c>
       <c r="F16">
-        <v>0.03978753928685926</v>
+        <v>-0.02123003324576247</v>
       </c>
       <c r="G16">
-        <v>0.02416034801021408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03321396579826334</v>
+      </c>
+      <c r="H16">
+        <v>0.02159527267508415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04273386157152684</v>
+        <v>-0.03517839564510305</v>
       </c>
       <c r="C19">
-        <v>-0.004049453518173604</v>
+        <v>5.685358984690571e-05</v>
       </c>
       <c r="D19">
-        <v>-0.01820909317304673</v>
+        <v>-0.01399445729503373</v>
       </c>
       <c r="E19">
-        <v>0.05053471526415571</v>
+        <v>0.0005627987506200713</v>
       </c>
       <c r="F19">
-        <v>0.09959217620806793</v>
+        <v>-0.02430732473024672</v>
       </c>
       <c r="G19">
-        <v>0.04588494297345961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.07502826588763462</v>
+      </c>
+      <c r="H19">
+        <v>0.03574536545511126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0004592636606166226</v>
+        <v>-0.01092874609735337</v>
       </c>
       <c r="C20">
-        <v>-0.02113971001578073</v>
+        <v>-0.006066607012932586</v>
       </c>
       <c r="D20">
-        <v>-0.009822400003277469</v>
+        <v>-0.001675544716504376</v>
       </c>
       <c r="E20">
-        <v>0.03625949329911225</v>
+        <v>-0.0003232378942717669</v>
       </c>
       <c r="F20">
-        <v>0.06296829515523474</v>
+        <v>-0.01508388072324494</v>
       </c>
       <c r="G20">
-        <v>0.06770925023955086</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05323523319188263</v>
+      </c>
+      <c r="H20">
+        <v>-0.0100566768678459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00187656758821743</v>
+        <v>-0.02243458701133008</v>
       </c>
       <c r="C21">
-        <v>0.007413168004628996</v>
+        <v>-0.005804381885393604</v>
       </c>
       <c r="D21">
-        <v>-0.005385523392861827</v>
+        <v>-0.004632013559902869</v>
       </c>
       <c r="E21">
-        <v>0.04351727393592871</v>
+        <v>-0.01163507071404943</v>
       </c>
       <c r="F21">
-        <v>0.0609060811987818</v>
+        <v>-0.006737279169911657</v>
       </c>
       <c r="G21">
-        <v>0.03056969631567521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05680592719864022</v>
+      </c>
+      <c r="H21">
+        <v>0.008599816737125321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03324964787233626</v>
+        <v>-0.02234798502955866</v>
       </c>
       <c r="C24">
-        <v>-0.01384170717548142</v>
+        <v>0.003218978765333291</v>
       </c>
       <c r="D24">
-        <v>-0.01265457305434044</v>
+        <v>-0.03037374612984897</v>
       </c>
       <c r="E24">
-        <v>0.02238908499431254</v>
+        <v>-0.001405793143217921</v>
       </c>
       <c r="F24">
-        <v>0.03237754647937493</v>
+        <v>-0.01696427840627652</v>
       </c>
       <c r="G24">
-        <v>0.01973883727275027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.03104042802851946</v>
+      </c>
+      <c r="H24">
+        <v>0.02647407041408099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03158121730906046</v>
+        <v>-0.0329526373891894</v>
       </c>
       <c r="C25">
-        <v>-0.007657216418542654</v>
+        <v>0.001618939820626183</v>
       </c>
       <c r="D25">
-        <v>-0.009056806683149466</v>
+        <v>-0.027491567157016</v>
       </c>
       <c r="E25">
-        <v>0.04157537584934039</v>
+        <v>-0.002482274654493139</v>
       </c>
       <c r="F25">
-        <v>0.03297793685689678</v>
+        <v>-0.02237846523253214</v>
       </c>
       <c r="G25">
-        <v>0.005537903228146616</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03549006605711353</v>
+      </c>
+      <c r="H25">
+        <v>0.02868580833275501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02077230174941822</v>
+        <v>-0.02005034784854597</v>
       </c>
       <c r="C26">
-        <v>0.00789712451514819</v>
+        <v>-0.01734700645626625</v>
       </c>
       <c r="D26">
-        <v>-0.0342622307805571</v>
+        <v>-0.004074104358651869</v>
       </c>
       <c r="E26">
-        <v>0.03781721170474858</v>
+        <v>0.007164133790071585</v>
       </c>
       <c r="F26">
-        <v>0.05871907619614472</v>
+        <v>-0.002290998311847441</v>
       </c>
       <c r="G26">
-        <v>0.03168404791560916</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03810275162994494</v>
+      </c>
+      <c r="H26">
+        <v>-0.003111502416957459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07654484977840489</v>
+        <v>-0.03095336960430145</v>
       </c>
       <c r="C27">
-        <v>-0.04621096549159965</v>
+        <v>0.01168987176263538</v>
       </c>
       <c r="D27">
-        <v>-0.0001565958993918382</v>
+        <v>-0.01290583333609084</v>
       </c>
       <c r="E27">
-        <v>0.05509617305358692</v>
+        <v>-0.00650271274738237</v>
       </c>
       <c r="F27">
-        <v>0.05311851272885629</v>
+        <v>-0.02456979840850326</v>
       </c>
       <c r="G27">
-        <v>0.05134398097458991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02897294541960313</v>
+      </c>
+      <c r="H27">
+        <v>-0.002082828588766232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07091261577852871</v>
+        <v>-0.1501043493410661</v>
       </c>
       <c r="C28">
-        <v>-0.06617134523406742</v>
+        <v>0.03547944815763323</v>
       </c>
       <c r="D28">
-        <v>0.05312880496984763</v>
+        <v>0.216256345023043</v>
       </c>
       <c r="E28">
-        <v>-0.1666779901746958</v>
+        <v>0.02004404380191277</v>
       </c>
       <c r="F28">
-        <v>0.09286074133850179</v>
+        <v>0.08612913632712403</v>
       </c>
       <c r="G28">
-        <v>-0.01406945848045189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.006599125043066551</v>
+      </c>
+      <c r="H28">
+        <v>-0.01405264494714204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02187700264869871</v>
+        <v>-0.02276406321287296</v>
       </c>
       <c r="C29">
-        <v>-0.01615281934524357</v>
+        <v>0.002110252674961085</v>
       </c>
       <c r="D29">
-        <v>0.001569836547276971</v>
+        <v>-0.004436750095054235</v>
       </c>
       <c r="E29">
-        <v>0.05510543797670325</v>
+        <v>-0.009763800635706645</v>
       </c>
       <c r="F29">
-        <v>0.04690255580159169</v>
+        <v>-0.02249096062310987</v>
       </c>
       <c r="G29">
-        <v>0.06390585651764912</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03960410632573126</v>
+      </c>
+      <c r="H29">
+        <v>-0.01845493162715218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09129912746489016</v>
+        <v>-0.05506663730627722</v>
       </c>
       <c r="C30">
-        <v>-0.04806507180020559</v>
+        <v>-0.003864661419266064</v>
       </c>
       <c r="D30">
-        <v>-0.04300206321212913</v>
+        <v>-0.06043199395405552</v>
       </c>
       <c r="E30">
-        <v>0.09014361150311746</v>
+        <v>0.0332844412635285</v>
       </c>
       <c r="F30">
-        <v>0.04839179761994952</v>
+        <v>-0.06660497616902311</v>
       </c>
       <c r="G30">
-        <v>0.04684713650862345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06976088077231651</v>
+      </c>
+      <c r="H30">
+        <v>0.03430175829305357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06461214567536409</v>
+        <v>-0.05554187812649483</v>
       </c>
       <c r="C31">
-        <v>-0.01195903744810648</v>
+        <v>0.01436166975965099</v>
       </c>
       <c r="D31">
-        <v>-0.04905173978374756</v>
+        <v>-0.02816476630668929</v>
       </c>
       <c r="E31">
-        <v>0.03261300920407521</v>
+        <v>0.008485624623545695</v>
       </c>
       <c r="F31">
-        <v>0.04103372889134588</v>
+        <v>-0.01837391377001002</v>
       </c>
       <c r="G31">
-        <v>0.07521147267124258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02503903437260628</v>
+      </c>
+      <c r="H31">
+        <v>-0.01481589090919133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02134501135142474</v>
+        <v>-0.01464562441955297</v>
       </c>
       <c r="C32">
-        <v>-0.02486221501293085</v>
+        <v>0.01585237126818508</v>
       </c>
       <c r="D32">
-        <v>-0.004329833382576331</v>
+        <v>0.005035020608029874</v>
       </c>
       <c r="E32">
-        <v>0.08007495905228106</v>
+        <v>-0.01821253734001085</v>
       </c>
       <c r="F32">
-        <v>0.06114113412027825</v>
+        <v>-0.04643649996763356</v>
       </c>
       <c r="G32">
-        <v>0.04745493833656621</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05953856006182046</v>
+      </c>
+      <c r="H32">
+        <v>0.04281425738494232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05567404358060329</v>
+        <v>-0.04067731323293999</v>
       </c>
       <c r="C33">
-        <v>0.006843811286806989</v>
+        <v>0.0006826724867157972</v>
       </c>
       <c r="D33">
-        <v>-0.0425522422030449</v>
+        <v>-0.03161480129333679</v>
       </c>
       <c r="E33">
-        <v>0.06694783618222709</v>
+        <v>0.0224625494365172</v>
       </c>
       <c r="F33">
-        <v>0.09101984674046679</v>
+        <v>-0.007922039593548279</v>
       </c>
       <c r="G33">
-        <v>0.04831414814249347</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.06474983160572231</v>
+      </c>
+      <c r="H33">
+        <v>0.01503973155146302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03366005477203603</v>
+        <v>-0.02864698566548813</v>
       </c>
       <c r="C34">
-        <v>-0.01155381676095737</v>
+        <v>0.01690155647896864</v>
       </c>
       <c r="D34">
-        <v>-0.01338579731988974</v>
+        <v>-0.03131992235660563</v>
       </c>
       <c r="E34">
-        <v>0.04788146341686581</v>
+        <v>-0.006249887011858185</v>
       </c>
       <c r="F34">
-        <v>0.03958205793971274</v>
+        <v>-0.02043048842270045</v>
       </c>
       <c r="G34">
-        <v>0.01828495105581538</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02928103180594728</v>
+      </c>
+      <c r="H34">
+        <v>0.02314576374618628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01410685891831642</v>
+        <v>-0.0226027782941669</v>
       </c>
       <c r="C36">
-        <v>-0.007920011978776937</v>
+        <v>-0.003085937169876155</v>
       </c>
       <c r="D36">
-        <v>-0.002150178987859034</v>
+        <v>0.002187938877714683</v>
       </c>
       <c r="E36">
-        <v>0.02822719057871319</v>
+        <v>-0.001894849502191795</v>
       </c>
       <c r="F36">
-        <v>0.02396871822806746</v>
+        <v>-0.006955894842662642</v>
       </c>
       <c r="G36">
-        <v>0.03474195903657133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02064182427617302</v>
+      </c>
+      <c r="H36">
+        <v>-0.003899981833227974</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0002538870149018672</v>
+        <v>-0.02255089308974046</v>
       </c>
       <c r="C38">
-        <v>0.006363371623766884</v>
+        <v>0.01653119935900199</v>
       </c>
       <c r="D38">
-        <v>0.01657150750618137</v>
+        <v>6.726369971720075e-05</v>
       </c>
       <c r="E38">
-        <v>-0.002355138082270903</v>
+        <v>-0.004830841854943025</v>
       </c>
       <c r="F38">
-        <v>0.01852012189289861</v>
+        <v>-0.008864178741458426</v>
       </c>
       <c r="G38">
-        <v>-0.009140209034167233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.03039870805389188</v>
+      </c>
+      <c r="H38">
+        <v>0.02032857168161532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03964421684161014</v>
+        <v>-0.02099403296984315</v>
       </c>
       <c r="C39">
-        <v>-0.01551966043497465</v>
+        <v>0.0001289179173514199</v>
       </c>
       <c r="D39">
-        <v>-0.03363262262197194</v>
+        <v>-0.07154552704100342</v>
       </c>
       <c r="E39">
-        <v>0.04797982914905873</v>
+        <v>0.001445885327063718</v>
       </c>
       <c r="F39">
-        <v>0.04420837227388536</v>
+        <v>-0.03603798723554557</v>
       </c>
       <c r="G39">
-        <v>0.01888650244283449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05827165079689125</v>
+      </c>
+      <c r="H39">
+        <v>0.04884709512901347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03313459010428972</v>
+        <v>-0.03506652710535048</v>
       </c>
       <c r="C40">
-        <v>-0.03934919805348182</v>
+        <v>0.002069494515992455</v>
       </c>
       <c r="D40">
-        <v>-0.05739925010019445</v>
+        <v>-0.01542741304860048</v>
       </c>
       <c r="E40">
-        <v>0.03229073524749367</v>
+        <v>0.02163629364705335</v>
       </c>
       <c r="F40">
-        <v>0.09105508854861318</v>
+        <v>-0.03145464907871096</v>
       </c>
       <c r="G40">
-        <v>0.04470506234474024</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.05333448369062557</v>
+      </c>
+      <c r="H40">
+        <v>0.04565578594686218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0006553834130014988</v>
+        <v>-0.01134591898578424</v>
       </c>
       <c r="C41">
-        <v>0.00959915962226553</v>
+        <v>-0.0002691925404969954</v>
       </c>
       <c r="D41">
-        <v>-0.005746144784822636</v>
+        <v>0.0100536213957397</v>
       </c>
       <c r="E41">
-        <v>0.01567228226157176</v>
+        <v>0.002399305709774494</v>
       </c>
       <c r="F41">
-        <v>0.01110844205061368</v>
+        <v>0.00448708739596174</v>
       </c>
       <c r="G41">
-        <v>0.05575043477060333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.008658167629374467</v>
+      </c>
+      <c r="H41">
+        <v>-0.01643368617285823</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3327171235261122</v>
+        <v>-0.1656770165930521</v>
       </c>
       <c r="C42">
-        <v>0.8971137766514361</v>
+        <v>-0.1117108176386309</v>
       </c>
       <c r="D42">
-        <v>-0.1468286984220027</v>
+        <v>-0.5057668283125021</v>
       </c>
       <c r="E42">
-        <v>-0.1672183995919961</v>
+        <v>0.1360914379312743</v>
       </c>
       <c r="F42">
-        <v>-0.0567021093038272</v>
+        <v>0.8089535060911203</v>
       </c>
       <c r="G42">
-        <v>0.0287255821968384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1149932659689955</v>
+      </c>
+      <c r="H42">
+        <v>0.01231429233895862</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006192020579237698</v>
+        <v>-0.01178122379218496</v>
       </c>
       <c r="C43">
-        <v>0.0067935688700783</v>
+        <v>-0.001498962338537217</v>
       </c>
       <c r="D43">
-        <v>-0.009476775317977247</v>
+        <v>0.01376562562161727</v>
       </c>
       <c r="E43">
-        <v>0.0167271447195215</v>
+        <v>0.008076441556972985</v>
       </c>
       <c r="F43">
-        <v>0.03091500343437259</v>
+        <v>0.01091083478864445</v>
       </c>
       <c r="G43">
-        <v>0.05032093833684018</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01709163160387876</v>
+      </c>
+      <c r="H43">
+        <v>-0.01010009475805504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02086685964542435</v>
+        <v>-0.01671256946060753</v>
       </c>
       <c r="C44">
-        <v>0.005177655494633386</v>
+        <v>0.000712521680784361</v>
       </c>
       <c r="D44">
-        <v>-0.02531702704798576</v>
+        <v>-0.02257178968641064</v>
       </c>
       <c r="E44">
-        <v>0.06944473448751524</v>
+        <v>0.0003834814103004845</v>
       </c>
       <c r="F44">
-        <v>0.1696992252245257</v>
+        <v>0.00055598141025452</v>
       </c>
       <c r="G44">
-        <v>0.1568060370263164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0912619968599781</v>
+      </c>
+      <c r="H44">
+        <v>0.01358706924002927</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02159444022506464</v>
+        <v>-0.02288767147550193</v>
       </c>
       <c r="C46">
-        <v>-0.009805544952761805</v>
+        <v>-0.001775068557818075</v>
       </c>
       <c r="D46">
-        <v>-0.01884460522970119</v>
+        <v>-0.009168759788948599</v>
       </c>
       <c r="E46">
-        <v>0.06174409469742405</v>
+        <v>0.0008730165041905624</v>
       </c>
       <c r="F46">
-        <v>0.06753140242316687</v>
+        <v>-0.02510321565349561</v>
       </c>
       <c r="G46">
-        <v>0.06080205260503183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05640154046897007</v>
+      </c>
+      <c r="H46">
+        <v>-0.01471050453460658</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09898375654549356</v>
+        <v>-0.07747665841607862</v>
       </c>
       <c r="C47">
-        <v>-0.02751845356997394</v>
+        <v>0.03010655286941335</v>
       </c>
       <c r="D47">
-        <v>-0.02839966533063319</v>
+        <v>-0.03733998542053903</v>
       </c>
       <c r="E47">
-        <v>0.03834065240858854</v>
+        <v>0.003878589646816773</v>
       </c>
       <c r="F47">
-        <v>0.0009866663972888815</v>
+        <v>-0.0296199318768375</v>
       </c>
       <c r="G47">
-        <v>0.08840294518992831</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008742947390459476</v>
+      </c>
+      <c r="H47">
+        <v>-0.03065227605877113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01522999469384759</v>
+        <v>-0.02285704654632395</v>
       </c>
       <c r="C48">
-        <v>-0.001972361249289856</v>
+        <v>0.00672795045152552</v>
       </c>
       <c r="D48">
-        <v>-0.01563497349274852</v>
+        <v>-0.004245636674876751</v>
       </c>
       <c r="E48">
-        <v>0.03605637001778306</v>
+        <v>0.002783992647821436</v>
       </c>
       <c r="F48">
-        <v>0.04069164316184655</v>
+        <v>-0.009471914382760231</v>
       </c>
       <c r="G48">
-        <v>0.01717002721349955</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02906693122474087</v>
+      </c>
+      <c r="H48">
+        <v>0.0002758848422214379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09214836290442274</v>
+        <v>-0.07281608767982825</v>
       </c>
       <c r="C50">
-        <v>-0.01196971780174369</v>
+        <v>0.02570033504605941</v>
       </c>
       <c r="D50">
-        <v>-0.0415456784758852</v>
+        <v>-0.04421858170856771</v>
       </c>
       <c r="E50">
-        <v>0.05636596492014686</v>
+        <v>-0.01058549921614627</v>
       </c>
       <c r="F50">
-        <v>0.02923466262376709</v>
+        <v>-0.02450499210275525</v>
       </c>
       <c r="G50">
-        <v>0.03458125217725878</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02454826165691595</v>
+      </c>
+      <c r="H50">
+        <v>-0.0265078153829419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02204461675952562</v>
+        <v>-0.02265845130717565</v>
       </c>
       <c r="C51">
-        <v>-0.009036210545789923</v>
+        <v>0.0002094580564143067</v>
       </c>
       <c r="D51">
-        <v>-0.01968173290008765</v>
+        <v>0.009163319538713417</v>
       </c>
       <c r="E51">
-        <v>0.02199654323799602</v>
+        <v>0.007338057868251136</v>
       </c>
       <c r="F51">
-        <v>0.1418559255175127</v>
+        <v>0.006711076162612641</v>
       </c>
       <c r="G51">
-        <v>0.05651654422823032</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.07559255678169435</v>
+      </c>
+      <c r="H51">
+        <v>0.02310920084015832</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1045156511028118</v>
+        <v>-0.09465188793860964</v>
       </c>
       <c r="C53">
-        <v>-0.04182831708609866</v>
+        <v>0.03659400981144482</v>
       </c>
       <c r="D53">
-        <v>-0.0420618221511324</v>
+        <v>-0.06910825185090153</v>
       </c>
       <c r="E53">
-        <v>0.04491487247253787</v>
+        <v>-0.0002522380064457477</v>
       </c>
       <c r="F53">
-        <v>-0.04994258822931334</v>
+        <v>-0.06290799830701795</v>
       </c>
       <c r="G53">
-        <v>0.02708322244951183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05424926752208638</v>
+      </c>
+      <c r="H53">
+        <v>-0.03574388687228482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01593745523363225</v>
+        <v>-0.02546429127438576</v>
       </c>
       <c r="C54">
-        <v>-0.02554081837776481</v>
+        <v>0.01242058702456569</v>
       </c>
       <c r="D54">
-        <v>-0.0009813438006494805</v>
+        <v>0.01917445574091428</v>
       </c>
       <c r="E54">
-        <v>0.03680175422778054</v>
+        <v>-0.0046666668611228</v>
       </c>
       <c r="F54">
-        <v>0.06073262223159526</v>
+        <v>-0.01025396865376221</v>
       </c>
       <c r="G54">
-        <v>0.07536132497244633</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03662403919604627</v>
+      </c>
+      <c r="H54">
+        <v>-0.01504737385247953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1017058766440218</v>
+        <v>-0.08069428900903836</v>
       </c>
       <c r="C55">
-        <v>-0.02950744629531826</v>
+        <v>0.03203000264110879</v>
       </c>
       <c r="D55">
-        <v>-0.006228420217316229</v>
+        <v>-0.06656073063032202</v>
       </c>
       <c r="E55">
-        <v>0.057036784119765</v>
+        <v>-0.0106912132649806</v>
       </c>
       <c r="F55">
-        <v>-0.04274175701170916</v>
+        <v>-0.05272368263455679</v>
       </c>
       <c r="G55">
-        <v>0.06405699021899613</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03118085632313894</v>
+      </c>
+      <c r="H55">
+        <v>-0.04534460207741153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1478733812980494</v>
+        <v>-0.1305644074252792</v>
       </c>
       <c r="C56">
-        <v>-0.0760153896788579</v>
+        <v>0.05624868537268343</v>
       </c>
       <c r="D56">
-        <v>-0.03417553784079942</v>
+        <v>-0.08893836542197926</v>
       </c>
       <c r="E56">
-        <v>0.05422214936142938</v>
+        <v>-0.003524023948628672</v>
       </c>
       <c r="F56">
-        <v>-0.1538123484094607</v>
+        <v>-0.0892173156251168</v>
       </c>
       <c r="G56">
-        <v>-0.006511326123828094</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09728174697348765</v>
+      </c>
+      <c r="H56">
+        <v>-0.02773119112033857</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0437921859047723</v>
+        <v>-0.04373125070177979</v>
       </c>
       <c r="C57">
-        <v>-0.009518672474139794</v>
+        <v>-0.008764199372041172</v>
       </c>
       <c r="D57">
-        <v>-0.03016296349250297</v>
+        <v>-0.02018536697768206</v>
       </c>
       <c r="E57">
-        <v>0.003493241886213052</v>
+        <v>0.01086601796462857</v>
       </c>
       <c r="F57">
-        <v>0.07660728437366499</v>
+        <v>-0.02067850864667908</v>
       </c>
       <c r="G57">
-        <v>0.03722191837550475</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06317703984839096</v>
+      </c>
+      <c r="H57">
+        <v>0.01271513510644752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1980000465489369</v>
+        <v>-0.1461814625265114</v>
       </c>
       <c r="C58">
-        <v>-0.006256355157289438</v>
+        <v>0.04017655892179607</v>
       </c>
       <c r="D58">
-        <v>-0.1206553041859228</v>
+        <v>-0.1340328838332995</v>
       </c>
       <c r="E58">
-        <v>0.223842886451028</v>
+        <v>0.1107456009153764</v>
       </c>
       <c r="F58">
-        <v>0.2550334167670926</v>
+        <v>-0.01029486810130587</v>
       </c>
       <c r="G58">
-        <v>-0.03314017174661685</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.6739669063592632</v>
+      </c>
+      <c r="H58">
+        <v>-0.5465440100594631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.06960932438715998</v>
+        <v>-0.154856617744451</v>
       </c>
       <c r="C59">
-        <v>-0.08740260365752868</v>
+        <v>0.04294742779519483</v>
       </c>
       <c r="D59">
-        <v>0.03606595232943916</v>
+        <v>0.2130357563550821</v>
       </c>
       <c r="E59">
-        <v>-0.1303806897462429</v>
+        <v>0.03771327372914765</v>
       </c>
       <c r="F59">
-        <v>0.09280666551238627</v>
+        <v>0.06706365533930529</v>
       </c>
       <c r="G59">
-        <v>-0.03656025293486116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01608417748580767</v>
+      </c>
+      <c r="H59">
+        <v>0.01895929661275866</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1716686197198088</v>
+        <v>-0.1765798452421052</v>
       </c>
       <c r="C60">
-        <v>-0.04292831209250183</v>
+        <v>0.03835508121610018</v>
       </c>
       <c r="D60">
-        <v>-0.06191094496594193</v>
+        <v>-0.01528894024692807</v>
       </c>
       <c r="E60">
-        <v>0.03501800299113884</v>
+        <v>0.05396383361494197</v>
       </c>
       <c r="F60">
-        <v>0.1406616293039263</v>
+        <v>-0.0449650820456592</v>
       </c>
       <c r="G60">
-        <v>-0.3356157186572016</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1337100893811599</v>
+      </c>
+      <c r="H60">
+        <v>0.3831391700886315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02055619241981616</v>
+        <v>-0.02263329055238906</v>
       </c>
       <c r="C61">
-        <v>-0.00250282527830641</v>
+        <v>0.005910075835034977</v>
       </c>
       <c r="D61">
-        <v>-0.008274856553496687</v>
+        <v>-0.03986625341237262</v>
       </c>
       <c r="E61">
-        <v>0.02777817501206068</v>
+        <v>-0.003362202848341519</v>
       </c>
       <c r="F61">
-        <v>0.0206585019328898</v>
+        <v>-0.02520184573156054</v>
       </c>
       <c r="G61">
-        <v>0.01813574154591664</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03374058313383522</v>
+      </c>
+      <c r="H61">
+        <v>0.03589980289017376</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0162466719911044</v>
+        <v>-0.01384617695728365</v>
       </c>
       <c r="C63">
-        <v>-0.00491951387209709</v>
+        <v>-0.001794685487109887</v>
       </c>
       <c r="D63">
-        <v>-0.01363889194123736</v>
+        <v>-0.009646249660352808</v>
       </c>
       <c r="E63">
-        <v>0.04322724658863544</v>
+        <v>-0.002631424518071935</v>
       </c>
       <c r="F63">
-        <v>0.009380927089680701</v>
+        <v>-0.01773558414972848</v>
       </c>
       <c r="G63">
-        <v>0.04368325517952072</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01626704616337604</v>
+      </c>
+      <c r="H63">
+        <v>-0.01338343096479819</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0397885232806913</v>
+        <v>-0.04396987836518955</v>
       </c>
       <c r="C64">
-        <v>-0.020958832445953</v>
+        <v>0.01098376273464785</v>
       </c>
       <c r="D64">
-        <v>0.01760474968237173</v>
+        <v>-0.03492851870551566</v>
       </c>
       <c r="E64">
-        <v>0.04115317930449738</v>
+        <v>-0.01026873385043567</v>
       </c>
       <c r="F64">
-        <v>0.02430486997608231</v>
+        <v>-0.02110876135327364</v>
       </c>
       <c r="G64">
-        <v>0.06603131219188091</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02278656229026657</v>
+      </c>
+      <c r="H64">
+        <v>0.02575716319047476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01329191225952745</v>
+        <v>-0.02882417821871069</v>
       </c>
       <c r="C65">
-        <v>0.005212508157822205</v>
+        <v>-0.005680268334746705</v>
       </c>
       <c r="D65">
-        <v>-0.012528589688857</v>
+        <v>-0.05505521345515869</v>
       </c>
       <c r="E65">
-        <v>0.01979309432322446</v>
+        <v>-0.008380703374083165</v>
       </c>
       <c r="F65">
-        <v>0.008795767061376362</v>
+        <v>-0.04125003549556843</v>
       </c>
       <c r="G65">
-        <v>-0.008153874739132098</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.006583148879118282</v>
+      </c>
+      <c r="H65">
+        <v>0.05611926227470944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03958764481915665</v>
+        <v>-0.02864541049227231</v>
       </c>
       <c r="C66">
-        <v>-0.01801299079615439</v>
+        <v>0.00518565341754028</v>
       </c>
       <c r="D66">
-        <v>-0.02745062300762464</v>
+        <v>-0.08141055120077446</v>
       </c>
       <c r="E66">
-        <v>0.04905201465112032</v>
+        <v>0.005810076993581528</v>
       </c>
       <c r="F66">
-        <v>0.04041635276022611</v>
+        <v>-0.05454365093079769</v>
       </c>
       <c r="G66">
-        <v>0.006572667683791565</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04983592911038335</v>
+      </c>
+      <c r="H66">
+        <v>0.05775395373556493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01920613501452786</v>
+        <v>-0.04443044696873069</v>
       </c>
       <c r="C67">
-        <v>-0.0004349813442904153</v>
+        <v>0.02034943927607575</v>
       </c>
       <c r="D67">
-        <v>0.01788733944707895</v>
+        <v>0.005028346115803645</v>
       </c>
       <c r="E67">
-        <v>-0.02130960067391936</v>
+        <v>-0.001791488821028846</v>
       </c>
       <c r="F67">
-        <v>0.02124272512176321</v>
+        <v>-0.01140481577413232</v>
       </c>
       <c r="G67">
-        <v>-0.01166742576347466</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01879878892539821</v>
+      </c>
+      <c r="H67">
+        <v>0.03167208642466918</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08142202460145161</v>
+        <v>-0.1548423503453197</v>
       </c>
       <c r="C68">
-        <v>-0.06565633288987137</v>
+        <v>0.02117288155064085</v>
       </c>
       <c r="D68">
-        <v>0.05201895495993404</v>
+        <v>0.2016346378145333</v>
       </c>
       <c r="E68">
-        <v>-0.1732206896933798</v>
+        <v>0.03357869057486379</v>
       </c>
       <c r="F68">
-        <v>0.06804195905681187</v>
+        <v>0.09399437993888474</v>
       </c>
       <c r="G68">
-        <v>-0.0641889864144114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.009329292193308565</v>
+      </c>
+      <c r="H68">
+        <v>-0.04202931887131295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07309728321172405</v>
+        <v>-0.06139375401979765</v>
       </c>
       <c r="C69">
-        <v>-0.02474339157407674</v>
+        <v>0.02827392400852531</v>
       </c>
       <c r="D69">
-        <v>-0.02871549545839319</v>
+        <v>-0.03464943773895227</v>
       </c>
       <c r="E69">
-        <v>0.01582660915168153</v>
+        <v>0.004709447449634917</v>
       </c>
       <c r="F69">
-        <v>0.01023975106443296</v>
+        <v>-0.02802810726777872</v>
       </c>
       <c r="G69">
-        <v>0.07835875617721787</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-7.672406563168389e-05</v>
+      </c>
+      <c r="H69">
+        <v>-0.009655324377611334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.09664166775873867</v>
+        <v>-0.1467697104311799</v>
       </c>
       <c r="C71">
-        <v>-0.06948819121401346</v>
+        <v>0.02891999647872284</v>
       </c>
       <c r="D71">
-        <v>0.03170067367820381</v>
+        <v>0.1859212075981107</v>
       </c>
       <c r="E71">
-        <v>-0.2076924692883045</v>
+        <v>0.03308158011918714</v>
       </c>
       <c r="F71">
-        <v>0.08373628625266656</v>
+        <v>0.09589532412862735</v>
       </c>
       <c r="G71">
-        <v>-0.03429158674933513</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.009333196657785226</v>
+      </c>
+      <c r="H71">
+        <v>-0.02496722315558975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1137191424862526</v>
+        <v>-0.09111771955911011</v>
       </c>
       <c r="C72">
-        <v>-0.08366987720701663</v>
+        <v>0.04209967903526798</v>
       </c>
       <c r="D72">
-        <v>-0.02063147923577051</v>
+        <v>-0.07013437139161935</v>
       </c>
       <c r="E72">
-        <v>0.07341243523830991</v>
+        <v>0.005825953620449745</v>
       </c>
       <c r="F72">
-        <v>0.08976179546372449</v>
+        <v>-0.09631090639812041</v>
       </c>
       <c r="G72">
-        <v>-0.1083416993109186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.1031041265318167</v>
+      </c>
+      <c r="H72">
+        <v>0.15143481743305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2522556100220669</v>
+        <v>-0.2413498040162488</v>
       </c>
       <c r="C73">
-        <v>-0.05503226475184027</v>
+        <v>0.04766790043694451</v>
       </c>
       <c r="D73">
-        <v>-0.05053624573840321</v>
+        <v>-0.0650933950267182</v>
       </c>
       <c r="E73">
-        <v>-0.02355468251919803</v>
+        <v>0.0795791938513028</v>
       </c>
       <c r="F73">
-        <v>0.220786266965813</v>
+        <v>-0.05106415957828952</v>
       </c>
       <c r="G73">
-        <v>-0.4801507025509136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1796541383376269</v>
+      </c>
+      <c r="H73">
+        <v>0.5063412803743934</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1304638588140659</v>
+        <v>-0.1188518688070603</v>
       </c>
       <c r="C74">
-        <v>-0.03852829717345595</v>
+        <v>0.05077194194461881</v>
       </c>
       <c r="D74">
-        <v>-0.0337932043272666</v>
+        <v>-0.0906118720359305</v>
       </c>
       <c r="E74">
-        <v>0.01936500755584311</v>
+        <v>0.003145269594940386</v>
       </c>
       <c r="F74">
-        <v>-0.09396388627202784</v>
+        <v>-0.07349668519477509</v>
       </c>
       <c r="G74">
-        <v>-0.0279481539403354</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07339273183761924</v>
+      </c>
+      <c r="H74">
+        <v>-0.01071164082812645</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2221488858796061</v>
+        <v>-0.228649325708147</v>
       </c>
       <c r="C75">
-        <v>-0.114944208748736</v>
+        <v>0.1000380653429846</v>
       </c>
       <c r="D75">
-        <v>-0.08310426699109356</v>
+        <v>-0.1437105667270313</v>
       </c>
       <c r="E75">
-        <v>0.07636822665237847</v>
+        <v>0.01955444134975442</v>
       </c>
       <c r="F75">
-        <v>-0.1642024289057108</v>
+        <v>-0.1515532837388713</v>
       </c>
       <c r="G75">
-        <v>0.04412378492940372</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.154380669539738</v>
+      </c>
+      <c r="H75">
+        <v>-0.08961671951837454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2734489119013966</v>
+        <v>-0.2062744809374265</v>
       </c>
       <c r="C76">
-        <v>-0.1251385977507054</v>
+        <v>0.09495225684328355</v>
       </c>
       <c r="D76">
-        <v>-0.02100689461598984</v>
+        <v>-0.1340365350471871</v>
       </c>
       <c r="E76">
-        <v>0.05406865492333194</v>
+        <v>-0.02265348137922396</v>
       </c>
       <c r="F76">
-        <v>-0.1993259488207446</v>
+        <v>-0.1519069542410466</v>
       </c>
       <c r="G76">
-        <v>0.05116527484072439</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1666392535881915</v>
+      </c>
+      <c r="H76">
+        <v>-0.0926269448021472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1430452195015797</v>
+        <v>-0.07364992837407765</v>
       </c>
       <c r="C77">
-        <v>0.03403295791923441</v>
+        <v>0.008509277160273596</v>
       </c>
       <c r="D77">
-        <v>-0.06029370623884122</v>
+        <v>-0.07526795841008864</v>
       </c>
       <c r="E77">
-        <v>0.1004307171615665</v>
+        <v>0.01145030934674192</v>
       </c>
       <c r="F77">
-        <v>0.2230928719596819</v>
+        <v>0.008476567590083032</v>
       </c>
       <c r="G77">
-        <v>0.1376502138167602</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1317825007238733</v>
+      </c>
+      <c r="H77">
+        <v>-0.0696394212524253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0554992646518212</v>
+        <v>-0.03722669063658693</v>
       </c>
       <c r="C78">
-        <v>-0.009097757366339483</v>
+        <v>0.009712819593605456</v>
       </c>
       <c r="D78">
-        <v>-0.03646867070654462</v>
+        <v>-0.05909608492185837</v>
       </c>
       <c r="E78">
-        <v>0.1020505227682541</v>
+        <v>-0.002828993129887133</v>
       </c>
       <c r="F78">
-        <v>0.04152343114564887</v>
+        <v>-0.04402395904879805</v>
       </c>
       <c r="G78">
-        <v>0.05303553755964885</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06143460857026364</v>
+      </c>
+      <c r="H78">
+        <v>0.02648946518896372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2101159431232868</v>
+        <v>-0.1625641938384639</v>
       </c>
       <c r="C80">
-        <v>0.1307735054239171</v>
+        <v>0.04703477406208095</v>
       </c>
       <c r="D80">
-        <v>0.9208104350393593</v>
+        <v>-0.01569445642220573</v>
       </c>
       <c r="E80">
-        <v>0.267444541693954</v>
+        <v>-0.9617226118499008</v>
       </c>
       <c r="F80">
-        <v>-0.001006060929115226</v>
+        <v>0.1454605033575939</v>
       </c>
       <c r="G80">
-        <v>-0.01968031899415535</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.08868688247860287</v>
+      </c>
+      <c r="H80">
+        <v>0.008891039286338012</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1606644749280748</v>
+        <v>-0.1504647074712796</v>
       </c>
       <c r="C81">
-        <v>-0.08714975069901308</v>
+        <v>0.06514819342022186</v>
       </c>
       <c r="D81">
-        <v>-0.02803398446039559</v>
+        <v>-0.08925595208767899</v>
       </c>
       <c r="E81">
-        <v>0.05122194424357435</v>
+        <v>-0.004614476407272687</v>
       </c>
       <c r="F81">
-        <v>-0.1700867736084216</v>
+        <v>-0.09777433062446644</v>
       </c>
       <c r="G81">
-        <v>0.01631960566544504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1035904089300933</v>
+      </c>
+      <c r="H81">
+        <v>-0.06741485414534831</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05329755160968349</v>
+        <v>-0.0368633283048754</v>
       </c>
       <c r="C83">
-        <v>0.0105585369189195</v>
+        <v>0.006685483783397046</v>
       </c>
       <c r="D83">
-        <v>-0.04082997825505288</v>
+        <v>-0.02267631711855992</v>
       </c>
       <c r="E83">
-        <v>0.03108524902357365</v>
+        <v>0.01294355769188637</v>
       </c>
       <c r="F83">
-        <v>0.06143859638222506</v>
+        <v>-0.01059228530433926</v>
       </c>
       <c r="G83">
-        <v>0.04850286999627454</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.0588871913664743</v>
+      </c>
+      <c r="H83">
+        <v>0.01678254627323224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2418927092253358</v>
+        <v>-0.2150450072407397</v>
       </c>
       <c r="C85">
-        <v>-0.1039846118006214</v>
+        <v>0.08201992521849483</v>
       </c>
       <c r="D85">
-        <v>-0.05830607921329976</v>
+        <v>-0.147429183930005</v>
       </c>
       <c r="E85">
-        <v>0.05287991495784528</v>
+        <v>0.01197842161459328</v>
       </c>
       <c r="F85">
-        <v>-0.1808774887602954</v>
+        <v>-0.1330531418914363</v>
       </c>
       <c r="G85">
-        <v>0.07099583941380189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1651287147470938</v>
+      </c>
+      <c r="H85">
+        <v>-0.05971958427424941</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.001041157697787519</v>
+        <v>-0.01648479727654088</v>
       </c>
       <c r="C86">
-        <v>0.01216480476326877</v>
+        <v>-0.001390018123348828</v>
       </c>
       <c r="D86">
-        <v>0.001290961753917451</v>
+        <v>-0.00688461698829335</v>
       </c>
       <c r="E86">
-        <v>0.04784279100816823</v>
+        <v>0.01086360356439833</v>
       </c>
       <c r="F86">
-        <v>0.06520592188559649</v>
+        <v>0.004181377320445726</v>
       </c>
       <c r="G86">
-        <v>0.01888023347528853</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08811887648344995</v>
+      </c>
+      <c r="H86">
+        <v>0.03636616856127765</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0325023590580255</v>
+        <v>-0.02900833502142844</v>
       </c>
       <c r="C87">
-        <v>-0.004604695868617758</v>
+        <v>0.002793997730358457</v>
       </c>
       <c r="D87">
-        <v>-0.01178398081774235</v>
+        <v>-0.02903333696849398</v>
       </c>
       <c r="E87">
-        <v>0.03144533010659607</v>
+        <v>0.001801296734131592</v>
       </c>
       <c r="F87">
-        <v>0.08406746050456827</v>
+        <v>-0.02041606371146163</v>
       </c>
       <c r="G87">
-        <v>0.0004132104495442134</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09701628025897542</v>
+      </c>
+      <c r="H87">
+        <v>0.02618753270621793</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01041096256818617</v>
+        <v>-0.03790631811444026</v>
       </c>
       <c r="C88">
-        <v>-0.01546353955109481</v>
+        <v>-0.01050742867119166</v>
       </c>
       <c r="D88">
-        <v>0.02098315300396162</v>
+        <v>-0.0001613941237393336</v>
       </c>
       <c r="E88">
-        <v>-0.002234205858943155</v>
+        <v>-0.009107554354397588</v>
       </c>
       <c r="F88">
-        <v>0.02733484253170095</v>
+        <v>-0.0125592010403061</v>
       </c>
       <c r="G88">
-        <v>0.06704889838377778</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.004597234118837088</v>
+      </c>
+      <c r="H88">
+        <v>0.008993440292647389</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1174191247334468</v>
+        <v>-0.2403113331215319</v>
       </c>
       <c r="C89">
-        <v>-0.09994967482870812</v>
+        <v>0.04411524373434554</v>
       </c>
       <c r="D89">
-        <v>0.04480151599942196</v>
+        <v>0.3236283783399724</v>
       </c>
       <c r="E89">
-        <v>-0.2731617127191686</v>
+        <v>0.07417035380991564</v>
       </c>
       <c r="F89">
-        <v>0.138031935681463</v>
+        <v>0.126846498975487</v>
       </c>
       <c r="G89">
-        <v>0.003836043363018688</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.006874375532730561</v>
+      </c>
+      <c r="H89">
+        <v>-0.0354465475705819</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1094046268044186</v>
+        <v>-0.1935775936409476</v>
       </c>
       <c r="C90">
-        <v>-0.0969956733366252</v>
+        <v>0.03645831883474306</v>
       </c>
       <c r="D90">
-        <v>0.09116638947156701</v>
+        <v>0.284773507641758</v>
       </c>
       <c r="E90">
-        <v>-0.2961850220086763</v>
+        <v>0.04889161833054794</v>
       </c>
       <c r="F90">
-        <v>0.09670602159403699</v>
+        <v>0.1311672064605439</v>
       </c>
       <c r="G90">
-        <v>-0.01129754746022137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.04709948772252721</v>
+      </c>
+      <c r="H90">
+        <v>-0.04680478497168963</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2925350777883534</v>
+        <v>-0.236097122275967</v>
       </c>
       <c r="C91">
-        <v>-0.09183545747053579</v>
+        <v>0.1011008939968923</v>
       </c>
       <c r="D91">
-        <v>-0.07212295628815171</v>
+        <v>-0.1421725094535469</v>
       </c>
       <c r="E91">
-        <v>0.02915171968216046</v>
+        <v>0.01193037682996158</v>
       </c>
       <c r="F91">
-        <v>-0.2577646677086891</v>
+        <v>-0.1385413276978564</v>
       </c>
       <c r="G91">
-        <v>0.03253783463475162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.2005209820322876</v>
+      </c>
+      <c r="H91">
+        <v>-0.1220635844844074</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1814968064292828</v>
+        <v>-0.2454183287465713</v>
       </c>
       <c r="C92">
-        <v>-0.108595750546709</v>
+        <v>0.09779938206280794</v>
       </c>
       <c r="D92">
-        <v>0.1150214792018199</v>
+        <v>0.2249814852365873</v>
       </c>
       <c r="E92">
-        <v>-0.4566550870854383</v>
+        <v>0.03019343765987764</v>
       </c>
       <c r="F92">
-        <v>0.04159684796993033</v>
+        <v>0.1020570727521392</v>
       </c>
       <c r="G92">
-        <v>0.5014430272130961</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0492119192669095</v>
+      </c>
+      <c r="H92">
+        <v>-0.1470235059440803</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.114903019896544</v>
+        <v>-0.2169303510036381</v>
       </c>
       <c r="C93">
-        <v>-0.08284299937080043</v>
+        <v>0.04686461110223211</v>
       </c>
       <c r="D93">
-        <v>0.1043055053399725</v>
+        <v>0.3041679770768646</v>
       </c>
       <c r="E93">
-        <v>-0.4044504776106239</v>
+        <v>0.06346457853599768</v>
       </c>
       <c r="F93">
-        <v>0.06025444720409416</v>
+        <v>0.1661647901100416</v>
       </c>
       <c r="G93">
-        <v>-0.07702813309875343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05875636417528501</v>
+      </c>
+      <c r="H93">
+        <v>0.01098309814819294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2712644145508026</v>
+        <v>-0.253946370518342</v>
       </c>
       <c r="C94">
-        <v>-0.1385942438224441</v>
+        <v>0.08924348186652249</v>
       </c>
       <c r="D94">
-        <v>-0.05817931702093658</v>
+        <v>-0.1260930649240959</v>
       </c>
       <c r="E94">
-        <v>0.04780385610330799</v>
+        <v>0.02940508942342799</v>
       </c>
       <c r="F94">
-        <v>-0.3163282686282628</v>
+        <v>-0.1639984384128028</v>
       </c>
       <c r="G94">
-        <v>-0.02676350233237791</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2108303507241264</v>
+      </c>
+      <c r="H94">
+        <v>-0.1335969105864458</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07954517486703563</v>
+        <v>-0.06181049398249023</v>
       </c>
       <c r="C95">
-        <v>0.0009919720287910447</v>
+        <v>0.03021728373585894</v>
       </c>
       <c r="D95">
-        <v>-0.08287314190363415</v>
+        <v>-0.09175543304080372</v>
       </c>
       <c r="E95">
-        <v>0.08998818562177502</v>
+        <v>0.07202466442747779</v>
       </c>
       <c r="F95">
-        <v>0.03314798612426599</v>
+        <v>-0.02691867076864903</v>
       </c>
       <c r="G95">
-        <v>0.2160404989654422</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06480698582021702</v>
+      </c>
+      <c r="H95">
+        <v>0.006047384552940704</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1907315789194796</v>
+        <v>-0.1823454348419215</v>
       </c>
       <c r="C98">
-        <v>-0.02782140420448199</v>
+        <v>0.06839431430794146</v>
       </c>
       <c r="D98">
-        <v>-0.03259560296210738</v>
+        <v>-0.04152399680041875</v>
       </c>
       <c r="E98">
-        <v>-0.04834415666013396</v>
+        <v>0.05200134697243031</v>
       </c>
       <c r="F98">
-        <v>0.101321702095585</v>
+        <v>-0.01670174958175943</v>
       </c>
       <c r="G98">
-        <v>-0.3426624871535658</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1536843601709646</v>
+      </c>
+      <c r="H98">
+        <v>0.367039412691934</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005629086057548228</v>
+        <v>-0.01593648214508232</v>
       </c>
       <c r="C101">
-        <v>-0.0178229224582114</v>
+        <v>0.0001151991720578513</v>
       </c>
       <c r="D101">
-        <v>-0.01380553964934918</v>
+        <v>-0.004410524766602069</v>
       </c>
       <c r="E101">
-        <v>0.1211941164533669</v>
+        <v>-0.005092290492792776</v>
       </c>
       <c r="F101">
-        <v>0.1431973635560563</v>
+        <v>-0.02749659044900471</v>
       </c>
       <c r="G101">
-        <v>0.1254727723248421</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1030833364412141</v>
+      </c>
+      <c r="H101">
+        <v>-0.07065907563454096</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09901765206412799</v>
+        <v>-0.1031810865779461</v>
       </c>
       <c r="C102">
-        <v>-0.02659338294657092</v>
+        <v>0.03169256338101136</v>
       </c>
       <c r="D102">
-        <v>-0.02551766136218584</v>
+        <v>-0.07378834441119606</v>
       </c>
       <c r="E102">
-        <v>0.06307361427223837</v>
+        <v>-0.001131756849939339</v>
       </c>
       <c r="F102">
-        <v>-0.1314370731729683</v>
+        <v>-0.0651558331600942</v>
       </c>
       <c r="G102">
-        <v>0.06989502061012583</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09352596119059294</v>
+      </c>
+      <c r="H102">
+        <v>-0.05274931392272102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02622425755448926</v>
+        <v>-0.01996163251928769</v>
       </c>
       <c r="C103">
-        <v>-0.01249457722204344</v>
+        <v>0.007355250132690129</v>
       </c>
       <c r="D103">
-        <v>-0.0119099019807301</v>
+        <v>-0.01623974940544325</v>
       </c>
       <c r="E103">
-        <v>0.005406695794216418</v>
+        <v>-0.006761109961645833</v>
       </c>
       <c r="F103">
-        <v>-0.01377200348175893</v>
+        <v>-0.01822410910029626</v>
       </c>
       <c r="G103">
-        <v>0.01850314957505978</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.005247696326144319</v>
+      </c>
+      <c r="H103">
+        <v>-0.01124269151408182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2714749577796353</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9427411020385591</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.03893330306088803</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02714458659763847</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1566890099061442</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03363949344720638</v>
+      </c>
+      <c r="H104">
+        <v>-0.03033366323397878</v>
       </c>
     </row>
   </sheetData>
